--- a/未完成的任务.xlsx
+++ b/未完成的任务.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\cms_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B275712-BBEA-4F93-A248-A6ED6279AE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C79EB-5AB5-43F2-9927-1A5E4F9A3C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>http://localhost:3000/admin/manager/article_categories</t>
+  </si>
+  <si>
+    <t>http://localhost:3000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>导航栏页面显示排序功能又点奇怪因为    "score": "1", 中的1是字符串而不是数字</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -402,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="74.4140625" customWidth="1"/>
     <col min="2" max="2" width="65.9140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,13 +446,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{9E0D1F63-E52D-41D0-A778-0E9DB9C12D16}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{7C77D963-5D5E-4942-AEA9-FCEA38CB7802}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{2BE6EE8B-5D83-4750-89AF-0A55CE88FB28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>